--- a/replication/results/figureA4_police_report_primary.xlsx
+++ b/replication/results/figureA4_police_report_primary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>hour</t>
   </si>
@@ -34,52 +34,55 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(0.94)</t>
-  </si>
-  <si>
-    <t>(0.7)</t>
-  </si>
-  <si>
-    <t>(0.88)</t>
-  </si>
-  <si>
-    <t>(0.68)</t>
-  </si>
-  <si>
-    <t>(1.09)</t>
-  </si>
-  <si>
-    <t>(0.69)</t>
-  </si>
-  <si>
-    <t>(0.93)</t>
+    <t>(0.83)</t>
+  </si>
+  <si>
+    <t>(0.66)</t>
+  </si>
+  <si>
+    <t>(0.92)</t>
+  </si>
+  <si>
+    <t>(0.6)</t>
+  </si>
+  <si>
+    <t>(1.06)</t>
+  </si>
+  <si>
+    <t>(0.72)</t>
+  </si>
+  <si>
+    <t>(1.0)</t>
   </si>
   <si>
     <t>(1.21)</t>
   </si>
   <si>
-    <t>(0.83)</t>
-  </si>
-  <si>
-    <t>(0.58)</t>
-  </si>
-  <si>
     <t>(0.81)</t>
   </si>
   <si>
-    <t>(0.72)</t>
-  </si>
-  <si>
-    <t>(1.44)</t>
-  </si>
-  <si>
-    <t>(1.08)</t>
-  </si>
-  <si>
-    <t>(1.4)</t>
-  </si>
-  <si>
-    <t>(1.14)</t>
+    <t>(1.07)</t>
+  </si>
+  <si>
+    <t>(0.61)</t>
+  </si>
+  <si>
+    <t>(1.05)</t>
+  </si>
+  <si>
+    <t>(0.84)</t>
+  </si>
+  <si>
+    <t>(1.38)</t>
+  </si>
+  <si>
+    <t>(1.03)</t>
+  </si>
+  <si>
+    <t>(1.64)</t>
+  </si>
+  <si>
+    <t>(1.25)</t>
   </si>
 </sst>
 </file>
@@ -556,16 +559,16 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -614,22 +617,22 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10">
